--- a/Results/ALL_RESULTS_new.xlsx
+++ b/Results/ALL_RESULTS_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis-don-pbs\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4FE19E-9A41-484B-AA50-3FE0C895BBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A08121A-1CA6-4463-8612-A13D728F8709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
   <si>
     <t>large half init</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>3, 2 opt</t>
+  </si>
+  <si>
+    <t>Default parameters (I)</t>
+  </si>
+  <si>
+    <t>Default parameters (VNS)</t>
+  </si>
+  <si>
+    <t>total pass. Count</t>
   </si>
 </sst>
 </file>
@@ -301,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -310,8 +319,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,41 +1516,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C4AB8D-A012-472F-97E0-76384C290A13}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="8"/>
-    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="12"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
+    <col min="12" max="12" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J1" t="s">
@@ -1537,22 +1564,22 @@
       <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="10" t="s">
         <v>27</v>
       </c>
       <c r="R1" t="s">
@@ -1568,163 +1595,108 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
-        <v>1010</v>
-      </c>
-      <c r="C2">
-        <v>207</v>
-      </c>
-      <c r="D2">
-        <v>45224.53</v>
-      </c>
-      <c r="E2">
-        <v>29934.87</v>
-      </c>
-      <c r="F2">
-        <v>26516.83</v>
-      </c>
-      <c r="G2">
-        <v>75159.399999999994</v>
-      </c>
-      <c r="H2" s="8">
-        <v>74.42</v>
-      </c>
-      <c r="I2">
-        <v>2848.35</v>
-      </c>
-      <c r="J2">
-        <v>973</v>
-      </c>
-      <c r="K2">
-        <v>37</v>
-      </c>
-      <c r="L2">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="M2">
-        <v>69.47</v>
-      </c>
-      <c r="N2">
-        <v>44.850544707091402</v>
-      </c>
-      <c r="O2">
-        <v>29.752631038026699</v>
-      </c>
-      <c r="P2">
-        <v>42.8364864864864</v>
-      </c>
-      <c r="Q2">
-        <v>26.6367567567567</v>
-      </c>
-      <c r="R2">
-        <v>1010</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>75159.399999999994</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3">
-        <v>1010</v>
-      </c>
-      <c r="C3">
-        <v>212</v>
-      </c>
-      <c r="D3">
-        <v>41230.69</v>
-      </c>
-      <c r="E3">
-        <v>28087.26</v>
-      </c>
-      <c r="F3">
-        <v>24628.43</v>
-      </c>
-      <c r="G3">
-        <v>69317.95</v>
-      </c>
-      <c r="H3" s="8">
-        <v>68.63</v>
-      </c>
-      <c r="I3">
-        <v>2882.34</v>
-      </c>
-      <c r="J3">
-        <v>973</v>
-      </c>
-      <c r="K3">
-        <v>37</v>
-      </c>
-      <c r="L3">
-        <v>68.55</v>
-      </c>
-      <c r="M3">
-        <v>70.81</v>
-      </c>
-      <c r="N3">
-        <v>40.695066803699902</v>
-      </c>
-      <c r="O3">
-        <v>27.853751284686499</v>
-      </c>
-      <c r="P3">
-        <v>44.172702702702701</v>
-      </c>
-      <c r="Q3">
-        <v>26.6367567567567</v>
-      </c>
-      <c r="R3">
-        <v>1010</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>69317.95</v>
-      </c>
-      <c r="U3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>654</v>
+      </c>
+      <c r="C4">
+        <v>46</v>
+      </c>
+      <c r="D4" s="11">
+        <v>45981.32</v>
+      </c>
+      <c r="E4" s="11">
+        <v>20334.63</v>
+      </c>
+      <c r="F4" s="11">
+        <v>19602.96</v>
+      </c>
+      <c r="G4" s="11">
+        <v>66315.95</v>
+      </c>
+      <c r="H4" s="12">
+        <v>101.4</v>
+      </c>
+      <c r="I4" s="11">
+        <v>609.72</v>
+      </c>
+      <c r="J4">
+        <v>631</v>
+      </c>
+      <c r="K4">
+        <v>23</v>
+      </c>
+      <c r="L4" s="10">
+        <v>101.16</v>
+      </c>
+      <c r="M4" s="10">
+        <v>107.97</v>
+      </c>
+      <c r="N4" s="10">
+        <v>70.039635499207606</v>
+      </c>
+      <c r="O4" s="10">
+        <v>31.121378763866801</v>
+      </c>
+      <c r="P4" s="10">
+        <v>77.665652173913003</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>30.3060869565217</v>
+      </c>
+      <c r="R4">
+        <v>654</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>66315.95</v>
+      </c>
+      <c r="U4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>654</v>
       </c>
       <c r="C5">
-        <v>134</v>
-      </c>
-      <c r="D5">
-        <v>18167.55</v>
-      </c>
-      <c r="E5">
-        <v>18115.53</v>
-      </c>
-      <c r="F5">
-        <v>15674.98</v>
-      </c>
-      <c r="G5">
-        <v>36283.08</v>
-      </c>
-      <c r="H5" s="8">
-        <v>55.48</v>
-      </c>
-      <c r="I5">
-        <v>2033.81</v>
+        <v>56</v>
+      </c>
+      <c r="D5" s="11">
+        <v>38110.47</v>
+      </c>
+      <c r="E5" s="11">
+        <v>20269.009999999998</v>
+      </c>
+      <c r="F5" s="11">
+        <v>19425.4899999999</v>
+      </c>
+      <c r="G5" s="11">
+        <v>58379.48</v>
+      </c>
+      <c r="H5" s="12">
+        <v>89.27</v>
+      </c>
+      <c r="I5" s="11">
+        <v>702.96</v>
       </c>
       <c r="J5">
         <v>631</v>
@@ -1732,23 +1704,23 @@
       <c r="K5">
         <v>23</v>
       </c>
-      <c r="L5">
-        <v>55.99</v>
-      </c>
-      <c r="M5">
-        <v>41.34</v>
-      </c>
-      <c r="N5">
-        <v>28.162329635499201</v>
-      </c>
-      <c r="O5">
-        <v>27.831901743264599</v>
-      </c>
-      <c r="P5">
-        <v>17.266086956521701</v>
-      </c>
-      <c r="Q5">
-        <v>24.0695652173913</v>
+      <c r="L5" s="10">
+        <v>86.58</v>
+      </c>
+      <c r="M5" s="10">
+        <v>163.03</v>
+      </c>
+      <c r="N5" s="10">
+        <v>55.574152139461098</v>
+      </c>
+      <c r="O5" s="10">
+        <v>31.002456418383499</v>
+      </c>
+      <c r="P5" s="10">
+        <v>132.31217391304301</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>30.715652173913</v>
       </c>
       <c r="R5">
         <v>654</v>
@@ -1757,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>36283.08</v>
+        <v>58379.48</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1765,31 +1737,31 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>654</v>
       </c>
       <c r="C6">
-        <v>142</v>
-      </c>
-      <c r="D6">
-        <v>17071.499999999902</v>
-      </c>
-      <c r="E6">
-        <v>16857.07</v>
-      </c>
-      <c r="F6">
-        <v>14461.72</v>
-      </c>
-      <c r="G6">
-        <v>33928.57</v>
-      </c>
-      <c r="H6" s="8">
-        <v>51.88</v>
-      </c>
-      <c r="I6">
-        <v>1996.14</v>
+        <v>334</v>
+      </c>
+      <c r="D6" s="11">
+        <v>10990.8399999999</v>
+      </c>
+      <c r="E6" s="11">
+        <v>15229.049999999899</v>
+      </c>
+      <c r="F6" s="11">
+        <v>7788.99999999999</v>
+      </c>
+      <c r="G6" s="11">
+        <v>26219.89</v>
+      </c>
+      <c r="H6" s="12">
+        <v>40.090000000000003</v>
+      </c>
+      <c r="I6" s="11">
+        <v>6199.89</v>
       </c>
       <c r="J6">
         <v>631</v>
@@ -1797,23 +1769,23 @@
       <c r="K6">
         <v>23</v>
       </c>
-      <c r="L6">
-        <v>51.97</v>
-      </c>
-      <c r="M6">
-        <v>49.34</v>
-      </c>
-      <c r="N6">
-        <v>26.161426307448401</v>
-      </c>
-      <c r="O6">
-        <v>25.809508716323201</v>
-      </c>
-      <c r="P6">
-        <v>24.506086956521699</v>
-      </c>
-      <c r="Q6">
-        <v>24.8378260869565</v>
+      <c r="L6" s="10">
+        <v>40.28</v>
+      </c>
+      <c r="M6" s="10">
+        <v>34.83</v>
+      </c>
+      <c r="N6" s="10">
+        <v>17.012488114104499</v>
+      </c>
+      <c r="O6" s="10">
+        <v>23.270792393026898</v>
+      </c>
+      <c r="P6" s="10">
+        <v>11.128695652173899</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>23.703478260869499</v>
       </c>
       <c r="R6">
         <v>654</v>
@@ -1822,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>33928.57</v>
+        <v>26219.89</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1830,31 +1802,31 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>654</v>
       </c>
       <c r="C7">
-        <v>132</v>
-      </c>
-      <c r="D7">
-        <v>17318.77</v>
-      </c>
-      <c r="E7">
-        <v>18813.04</v>
-      </c>
-      <c r="F7">
-        <v>16508.900000000001</v>
-      </c>
-      <c r="G7">
-        <v>36131.81</v>
-      </c>
-      <c r="H7" s="8">
-        <v>55.25</v>
-      </c>
-      <c r="I7">
-        <v>1920.13</v>
+        <v>348</v>
+      </c>
+      <c r="D7" s="11">
+        <v>9563.8699999999899</v>
+      </c>
+      <c r="E7" s="11">
+        <v>15158.4099999999</v>
+      </c>
+      <c r="F7" s="11">
+        <v>7932.4699999999903</v>
+      </c>
+      <c r="G7" s="11">
+        <v>24722.28</v>
+      </c>
+      <c r="H7" s="12">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I7" s="11">
+        <v>6021.49</v>
       </c>
       <c r="J7">
         <v>631</v>
@@ -1862,23 +1834,23 @@
       <c r="K7">
         <v>23</v>
       </c>
-      <c r="L7">
-        <v>55.69</v>
-      </c>
-      <c r="M7">
-        <v>42.97</v>
-      </c>
-      <c r="N7">
-        <v>26.852123613312202</v>
-      </c>
-      <c r="O7">
-        <v>28.842805071315301</v>
-      </c>
-      <c r="P7">
-        <v>16.307826086956499</v>
-      </c>
-      <c r="Q7">
-        <v>26.6621739130434</v>
+      <c r="L7" s="10">
+        <v>37.9</v>
+      </c>
+      <c r="M7" s="10">
+        <v>35.1</v>
+      </c>
+      <c r="N7" s="10">
+        <v>14.7412202852614</v>
+      </c>
+      <c r="O7" s="10">
+        <v>23.158843106180601</v>
+      </c>
+      <c r="P7" s="10">
+        <v>11.398260869565201</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>23.703478260869499</v>
       </c>
       <c r="R7">
         <v>654</v>
@@ -1887,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>36131.81</v>
+        <v>24722.28</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1895,96 +1867,161 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>654</v>
+        <v>1010</v>
       </c>
       <c r="C8">
-        <v>133</v>
-      </c>
-      <c r="D8">
-        <v>16004.3299999999</v>
-      </c>
-      <c r="E8">
-        <v>17828.119999999901</v>
-      </c>
-      <c r="F8">
-        <v>15672.7699999999</v>
-      </c>
-      <c r="G8">
-        <v>33832.449999999997</v>
-      </c>
-      <c r="H8" s="8">
-        <v>51.73</v>
-      </c>
-      <c r="I8">
-        <v>1796.15</v>
+        <v>207</v>
+      </c>
+      <c r="D8" s="11">
+        <v>45224.53</v>
+      </c>
+      <c r="E8" s="11">
+        <v>29934.87</v>
+      </c>
+      <c r="F8" s="11">
+        <v>26516.83</v>
+      </c>
+      <c r="G8" s="11">
+        <v>75159.399999999994</v>
+      </c>
+      <c r="H8" s="12">
+        <v>74.42</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2848.35</v>
       </c>
       <c r="J8">
-        <v>631</v>
+        <v>973</v>
       </c>
       <c r="K8">
-        <v>23</v>
-      </c>
-      <c r="L8">
-        <v>52.05</v>
-      </c>
-      <c r="M8">
-        <v>43.02</v>
-      </c>
-      <c r="N8">
-        <v>24.767305863708302</v>
-      </c>
-      <c r="O8">
-        <v>27.281917591125101</v>
-      </c>
-      <c r="P8">
-        <v>16.354782608695601</v>
-      </c>
-      <c r="Q8">
-        <v>26.6621739130434</v>
+        <v>37</v>
+      </c>
+      <c r="L8" s="10">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="M8" s="10">
+        <v>69.47</v>
+      </c>
+      <c r="N8" s="10">
+        <v>44.850544707091402</v>
+      </c>
+      <c r="O8" s="10">
+        <v>29.752631038026699</v>
+      </c>
+      <c r="P8" s="10">
+        <v>42.8364864864864</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>26.6367567567567</v>
       </c>
       <c r="R8">
-        <v>654</v>
+        <v>1010</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>33832.449999999997</v>
+        <v>75159.399999999994</v>
       </c>
       <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>1010</v>
+      </c>
+      <c r="C9">
+        <v>212</v>
+      </c>
+      <c r="D9" s="11">
+        <v>41230.69</v>
+      </c>
+      <c r="E9" s="11">
+        <v>28087.26</v>
+      </c>
+      <c r="F9" s="11">
+        <v>24628.43</v>
+      </c>
+      <c r="G9" s="11">
+        <v>69317.95</v>
+      </c>
+      <c r="H9" s="12">
+        <v>68.63</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2882.34</v>
+      </c>
+      <c r="J9">
+        <v>973</v>
+      </c>
+      <c r="K9">
+        <v>37</v>
+      </c>
+      <c r="L9" s="10">
+        <v>68.55</v>
+      </c>
+      <c r="M9" s="10">
+        <v>70.81</v>
+      </c>
+      <c r="N9" s="10">
+        <v>40.695066803699902</v>
+      </c>
+      <c r="O9" s="10">
+        <v>27.853751284686499</v>
+      </c>
+      <c r="P9" s="10">
+        <v>44.172702702702701</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>26.6367567567567</v>
+      </c>
+      <c r="R9">
+        <v>1010</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>69317.95</v>
+      </c>
+      <c r="U9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>654</v>
       </c>
       <c r="C10">
-        <v>46</v>
-      </c>
-      <c r="D10">
-        <v>45981.32</v>
-      </c>
-      <c r="E10">
-        <v>20334.63</v>
-      </c>
-      <c r="F10">
-        <v>19602.96</v>
-      </c>
-      <c r="G10">
-        <v>66315.95</v>
-      </c>
-      <c r="H10" s="8">
-        <v>101.4</v>
-      </c>
-      <c r="I10">
-        <v>609.72</v>
+        <v>134</v>
+      </c>
+      <c r="D10" s="11">
+        <v>18167.55</v>
+      </c>
+      <c r="E10" s="11">
+        <v>18115.53</v>
+      </c>
+      <c r="F10" s="11">
+        <v>15674.98</v>
+      </c>
+      <c r="G10" s="11">
+        <v>36283.08</v>
+      </c>
+      <c r="H10" s="12">
+        <v>55.48</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2033.81</v>
       </c>
       <c r="J10">
         <v>631</v>
@@ -1992,23 +2029,23 @@
       <c r="K10">
         <v>23</v>
       </c>
-      <c r="L10">
-        <v>101.16</v>
-      </c>
-      <c r="M10">
-        <v>107.97</v>
-      </c>
-      <c r="N10">
-        <v>70.039635499207606</v>
-      </c>
-      <c r="O10">
-        <v>31.121378763866801</v>
-      </c>
-      <c r="P10">
-        <v>77.665652173913003</v>
-      </c>
-      <c r="Q10">
-        <v>30.3060869565217</v>
+      <c r="L10" s="10">
+        <v>55.99</v>
+      </c>
+      <c r="M10" s="10">
+        <v>41.34</v>
+      </c>
+      <c r="N10" s="10">
+        <v>28.162329635499201</v>
+      </c>
+      <c r="O10" s="10">
+        <v>27.831901743264599</v>
+      </c>
+      <c r="P10" s="10">
+        <v>17.266086956521701</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>24.0695652173913</v>
       </c>
       <c r="R10">
         <v>654</v>
@@ -2017,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>66315.95</v>
+        <v>36283.08</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2025,31 +2062,31 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>654</v>
       </c>
       <c r="C11">
-        <v>56</v>
-      </c>
-      <c r="D11">
-        <v>38110.47</v>
-      </c>
-      <c r="E11">
-        <v>20269.009999999998</v>
-      </c>
-      <c r="F11">
-        <v>19425.4899999999</v>
-      </c>
-      <c r="G11">
-        <v>58379.48</v>
-      </c>
-      <c r="H11" s="8">
-        <v>89.27</v>
-      </c>
-      <c r="I11">
-        <v>702.96</v>
+        <v>142</v>
+      </c>
+      <c r="D11" s="11">
+        <v>17071.499999999902</v>
+      </c>
+      <c r="E11" s="11">
+        <v>16857.07</v>
+      </c>
+      <c r="F11" s="11">
+        <v>14461.72</v>
+      </c>
+      <c r="G11" s="11">
+        <v>33928.57</v>
+      </c>
+      <c r="H11" s="12">
+        <v>51.88</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1996.14</v>
       </c>
       <c r="J11">
         <v>631</v>
@@ -2057,23 +2094,23 @@
       <c r="K11">
         <v>23</v>
       </c>
-      <c r="L11">
-        <v>86.58</v>
-      </c>
-      <c r="M11">
-        <v>163.03</v>
-      </c>
-      <c r="N11">
-        <v>55.574152139461098</v>
-      </c>
-      <c r="O11">
-        <v>31.002456418383499</v>
-      </c>
-      <c r="P11">
-        <v>132.31217391304301</v>
-      </c>
-      <c r="Q11">
-        <v>30.715652173913</v>
+      <c r="L11" s="10">
+        <v>51.97</v>
+      </c>
+      <c r="M11" s="10">
+        <v>49.34</v>
+      </c>
+      <c r="N11" s="10">
+        <v>26.161426307448401</v>
+      </c>
+      <c r="O11" s="10">
+        <v>25.809508716323201</v>
+      </c>
+      <c r="P11" s="10">
+        <v>24.506086956521699</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>24.8378260869565</v>
       </c>
       <c r="R11">
         <v>654</v>
@@ -2082,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>58379.48</v>
+        <v>33928.57</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -2090,31 +2127,31 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>654</v>
       </c>
       <c r="C12">
-        <v>334</v>
-      </c>
-      <c r="D12">
-        <v>10990.8399999999</v>
-      </c>
-      <c r="E12">
-        <v>15229.049999999899</v>
-      </c>
-      <c r="F12">
-        <v>7788.99999999999</v>
-      </c>
-      <c r="G12">
-        <v>26219.89</v>
-      </c>
-      <c r="H12" s="8">
-        <v>40.090000000000003</v>
-      </c>
-      <c r="I12">
-        <v>6199.89</v>
+        <v>132</v>
+      </c>
+      <c r="D12" s="11">
+        <v>17318.77</v>
+      </c>
+      <c r="E12" s="11">
+        <v>18813.04</v>
+      </c>
+      <c r="F12" s="11">
+        <v>16508.900000000001</v>
+      </c>
+      <c r="G12" s="11">
+        <v>36131.81</v>
+      </c>
+      <c r="H12" s="12">
+        <v>55.25</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1920.13</v>
       </c>
       <c r="J12">
         <v>631</v>
@@ -2122,23 +2159,23 @@
       <c r="K12">
         <v>23</v>
       </c>
-      <c r="L12">
-        <v>40.28</v>
-      </c>
-      <c r="M12">
-        <v>34.83</v>
-      </c>
-      <c r="N12">
-        <v>17.012488114104499</v>
-      </c>
-      <c r="O12">
-        <v>23.270792393026898</v>
-      </c>
-      <c r="P12">
-        <v>11.128695652173899</v>
-      </c>
-      <c r="Q12">
-        <v>23.703478260869499</v>
+      <c r="L12" s="10">
+        <v>55.69</v>
+      </c>
+      <c r="M12" s="10">
+        <v>42.97</v>
+      </c>
+      <c r="N12" s="10">
+        <v>26.852123613312202</v>
+      </c>
+      <c r="O12" s="10">
+        <v>28.842805071315301</v>
+      </c>
+      <c r="P12" s="10">
+        <v>16.307826086956499</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>26.6621739130434</v>
       </c>
       <c r="R12">
         <v>654</v>
@@ -2147,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>26219.89</v>
+        <v>36131.81</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -2155,31 +2192,31 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>654</v>
       </c>
       <c r="C13">
-        <v>348</v>
-      </c>
-      <c r="D13">
-        <v>9563.8699999999899</v>
-      </c>
-      <c r="E13">
-        <v>15158.4099999999</v>
-      </c>
-      <c r="F13">
-        <v>7932.4699999999903</v>
-      </c>
-      <c r="G13">
-        <v>24722.28</v>
-      </c>
-      <c r="H13" s="8">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="I13">
-        <v>6021.49</v>
+        <v>133</v>
+      </c>
+      <c r="D13" s="11">
+        <v>16004.3299999999</v>
+      </c>
+      <c r="E13" s="11">
+        <v>17828.119999999901</v>
+      </c>
+      <c r="F13" s="11">
+        <v>15672.7699999999</v>
+      </c>
+      <c r="G13" s="11">
+        <v>33832.449999999997</v>
+      </c>
+      <c r="H13" s="12">
+        <v>51.73</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1796.15</v>
       </c>
       <c r="J13">
         <v>631</v>
@@ -2187,23 +2224,23 @@
       <c r="K13">
         <v>23</v>
       </c>
-      <c r="L13">
-        <v>37.9</v>
-      </c>
-      <c r="M13">
-        <v>35.1</v>
-      </c>
-      <c r="N13">
-        <v>14.7412202852614</v>
-      </c>
-      <c r="O13">
-        <v>23.158843106180601</v>
-      </c>
-      <c r="P13">
-        <v>11.398260869565201</v>
-      </c>
-      <c r="Q13">
-        <v>23.703478260869499</v>
+      <c r="L13" s="10">
+        <v>52.05</v>
+      </c>
+      <c r="M13" s="10">
+        <v>43.02</v>
+      </c>
+      <c r="N13" s="10">
+        <v>24.767305863708302</v>
+      </c>
+      <c r="O13" s="10">
+        <v>27.281917591125101</v>
+      </c>
+      <c r="P13" s="10">
+        <v>16.354782608695601</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>26.6621739130434</v>
       </c>
       <c r="R13">
         <v>654</v>
@@ -2212,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>24722.28</v>
+        <v>33832.449999999997</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -2228,22 +2265,22 @@
       <c r="C15">
         <v>473</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="11">
         <v>46742.34</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="11">
         <v>21235.89</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="11">
         <v>16808.379999999899</v>
       </c>
       <c r="G15">
         <v>67978.23</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="12">
         <v>103.94</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="11">
         <v>3689.55</v>
       </c>
       <c r="J15">
@@ -2252,22 +2289,22 @@
       <c r="K15">
         <v>23</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="10">
         <v>103.84</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="10">
         <v>106.76</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="10">
         <v>71.169096671949205</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="10">
         <v>32.670618066560998</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="10">
         <v>79.766956521739104</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="10">
         <v>26.988260869565199</v>
       </c>
       <c r="R15">
@@ -2293,22 +2330,22 @@
       <c r="C16">
         <v>474</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="11">
         <v>46754.769999999902</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="11">
         <v>20922.569999999901</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="11">
         <v>16504.479999999901</v>
       </c>
       <c r="G16">
         <v>67677.34</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="12">
         <v>103.48</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="11">
         <v>3681.7</v>
       </c>
       <c r="J16">
@@ -2317,22 +2354,22 @@
       <c r="K16">
         <v>23</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="10">
         <v>103.36</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="10">
         <v>106.76</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="10">
         <v>71.188795562598997</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="10">
         <v>32.1740729001584</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="10">
         <v>79.766956521739104</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="10">
         <v>26.988260869565199</v>
       </c>
       <c r="R16">
@@ -2358,22 +2395,22 @@
       <c r="C17">
         <v>88</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="11">
         <v>22001.54</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="11">
         <v>15920.06</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="11">
         <v>13952.07</v>
       </c>
       <c r="G17">
         <v>37921.599999999999</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="12">
         <v>57.98</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="11">
         <v>1639.96</v>
       </c>
       <c r="J17">
@@ -2382,22 +2419,22 @@
       <c r="K17">
         <v>23</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="10">
         <v>57.91</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="10">
         <v>60.11</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="10">
         <v>33.520364500792297</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="10">
         <v>24.3860697305863</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="10">
         <v>36.9647826086956</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="10">
         <v>23.15</v>
       </c>
       <c r="R17">
@@ -2423,22 +2460,22 @@
       <c r="C18">
         <v>96</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="11">
         <v>15658.07</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="11">
         <v>16220.65</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="11">
         <v>14264.17</v>
       </c>
       <c r="G18">
         <v>31878.720000000001</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="12">
         <v>48.74</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="11">
         <v>1630.37</v>
       </c>
       <c r="J18">
@@ -2447,22 +2484,22 @@
       <c r="K18">
         <v>23</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="10">
         <v>47.92</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="10">
         <v>71.319999999999993</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="10">
         <v>23.182171156893801</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="10">
         <v>24.739239302694099</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="10">
         <v>44.7878260869565</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="10">
         <v>26.53</v>
       </c>
       <c r="R18">
@@ -2488,22 +2525,22 @@
       <c r="C19">
         <v>250</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="11">
         <v>29250.089999999898</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="11">
         <v>21361.03</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="11">
         <v>18046.129999999899</v>
       </c>
       <c r="G19">
         <v>50611.12</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="12">
         <v>77.39</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="11">
         <v>2762.38</v>
       </c>
       <c r="J19">
@@ -2512,22 +2549,22 @@
       <c r="K19">
         <v>23</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="10">
         <v>77.25</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="10">
         <v>81.03</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="10">
         <v>44.317987321711499</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="10">
         <v>32.936339144215502</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="10">
         <v>55.888695652173901</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="10">
         <v>25.139130434782601</v>
       </c>
       <c r="R19">
@@ -2553,22 +2590,22 @@
       <c r="C20">
         <v>250</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="11">
         <v>27627.4</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="11">
         <v>20485.73</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="11">
         <v>17301.669999999998</v>
       </c>
       <c r="G20">
         <v>48113.13</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="12">
         <v>73.569999999999993</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="11">
         <v>2653.34</v>
       </c>
       <c r="J20">
@@ -2577,22 +2614,22 @@
       <c r="K20">
         <v>23</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="10">
         <v>73.25</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="10">
         <v>82.37</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="10">
         <v>41.697448494453198</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="10">
         <v>31.549175911251901</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="10">
         <v>57.230869565217297</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="10">
         <v>25.139130434782601</v>
       </c>
       <c r="R20">
@@ -2618,22 +2655,22 @@
       <c r="C21">
         <v>66</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="11">
         <v>27905.759999999998</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="11">
         <v>14952.9</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="11">
         <v>13360.56</v>
       </c>
       <c r="G21">
         <v>42858.66</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="12">
         <v>65.53</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="11">
         <v>1326.9</v>
       </c>
       <c r="J21">
@@ -2642,22 +2679,22 @@
       <c r="K21">
         <v>23</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="10">
         <v>66.069999999999993</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="10">
         <v>50.82</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="10">
         <v>43.120824088748002</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="10">
         <v>22.9487004754358</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="10">
         <v>30.283478260869501</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="10">
         <v>20.533478260869501</v>
       </c>
       <c r="R21">
@@ -2683,22 +2720,22 @@
       <c r="C22">
         <v>86</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="11">
         <v>18717.46</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="11">
         <v>15924.08</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="11">
         <v>14226.64</v>
       </c>
       <c r="G22">
         <v>34641.54</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="12">
         <v>52.97</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="11">
         <v>1414.48</v>
       </c>
       <c r="J22">
@@ -2707,22 +2744,22 @@
       <c r="K22">
         <v>23</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="10">
         <v>52.71</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="10">
         <v>59.99</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="10">
         <v>28.233787638668701</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="10">
         <v>24.478827258320099</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="10">
         <v>39.2147826086956</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="10">
         <v>20.779999999999902</v>
       </c>
       <c r="R22">
@@ -2748,74 +2785,78 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="10" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" style="11" customWidth="1"/>
+    <col min="11" max="17" width="9.28515625" style="10" customWidth="1"/>
+    <col min="18" max="19" width="9.28515625" style="11" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="9" t="s">
         <v>30</v>
       </c>
       <c r="U1" t="s">
@@ -2826,61 +2867,61 @@
       <c r="A2" t="s">
         <v>59</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="11">
         <v>703</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="11">
         <v>159.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="11">
         <v>24958.525000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="11">
         <v>21188.184999999947</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="11">
         <v>18560.21999999995</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="11">
         <v>46146.71</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="10">
         <v>65.539999999999992</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="11">
         <v>2189.9949999999999</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="11">
         <v>653.5</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="10">
         <v>49.5</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="10">
         <v>64.91</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="10">
         <v>73.664999999999992</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="10">
         <v>34.677835174720897</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="10">
         <v>30.231978203217949</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="10">
         <v>45.213777551020399</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="10">
         <v>28.455565306122402</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="11">
         <v>703</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
+      <c r="S2" s="11">
+        <v>0</v>
+      </c>
+      <c r="T2" s="9">
         <v>46146.71</v>
       </c>
       <c r="U2">
@@ -2891,61 +2932,61 @@
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="17">
         <v>703</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="17">
         <v>171.5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="17">
         <v>21023.3649999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="17">
         <v>20594.064999999999</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="17">
         <v>18043.00499999995</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="17">
         <v>41617.43</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="15">
         <v>59.129999999999995</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="17">
         <v>2125.895</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="17">
         <v>653.5</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="15">
         <v>49.5</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="15">
         <v>57.239999999999995</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="15">
         <v>84.164999999999992</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="15">
         <v>28.1138805136206</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="15">
         <v>29.127910118729602</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="15">
         <v>53.051616326530599</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="15">
         <v>31.110267346938699</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="17">
         <v>703</v>
       </c>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
+      <c r="S3" s="17">
+        <v>0</v>
+      </c>
+      <c r="T3" s="13">
         <v>41617.43</v>
       </c>
       <c r="U3" s="5">
@@ -2956,129 +2997,129 @@
       <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>664.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>135.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>22206.09</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <v>21562.25499999995</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="11">
         <v>19171.474999999951</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="11">
         <v>43768.345000000001</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="10">
         <v>65.85499999999999</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="11">
         <v>1992.3200000000002</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="11">
         <v>642</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="10">
         <v>22.5</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="10">
         <v>65.650000000000006</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="10">
         <v>72.085000000000008</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="10">
         <v>32.892645767553347</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="10">
         <v>32.754822033137252</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="10">
         <v>47.985464426877449</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="10">
         <v>24.099496047430751</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="11">
         <v>664.5</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
+      <c r="T4" s="9">
         <v>43768.345000000001</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="18">
         <v>664.5</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="18">
         <v>146.5</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="18">
         <v>20022.614999999951</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="18">
         <v>18626.324999999997</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="18">
         <v>16139.575000000001</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="18">
         <v>38648.94</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="16">
         <v>58.14</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="18">
         <v>2072.29</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="18">
         <v>642</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="16">
         <v>22.5</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="16">
         <v>56.99</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="16">
         <v>90.625</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="16">
         <v>28.812214853789449</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="16">
         <v>28.178379999174801</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="16">
         <v>66.986403162055296</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="16">
         <v>23.63797430830035</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="18">
         <v>664.5</v>
       </c>
-      <c r="S5" s="9">
-        <v>0</v>
-      </c>
-      <c r="T5" s="9">
+      <c r="S5" s="18">
+        <v>0</v>
+      </c>
+      <c r="T5" s="14">
         <v>38648.94</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3086,61 +3127,61 @@
       <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>644.5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <v>114</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="11">
         <v>19393.364999999947</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="11">
         <v>20019.400000000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="11">
         <v>17578.674999999999</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="11">
         <v>39412.764999999999</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="10">
         <v>61.174999999999997</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="11">
         <v>2033.8899999999999</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="11">
         <v>638</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="10">
         <v>6.5</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="10">
         <v>60.975000000000001</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="10">
         <v>72.59</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="10">
         <v>29.8083320555162</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="10">
         <v>31.1671761716599</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="10">
         <v>49.905416666666596</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="10">
         <v>22.686250000000001</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="11">
         <v>644.5</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
+      <c r="S6" s="11">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
         <v>39412.764999999999</v>
       </c>
       <c r="U6">
@@ -3151,61 +3192,61 @@
       <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="17">
         <v>644.5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="17">
         <v>127</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="17">
         <v>15362.054999999949</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="17">
         <v>17206.739999999998</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="17">
         <v>14947.79</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="17">
         <v>32568.794999999998</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="15">
         <v>50.55</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="17">
         <v>1882.4499999999998</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="17">
         <v>638</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="15">
         <v>6.5</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="15">
         <v>49.769999999999996</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="15">
         <v>108.815</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="15">
         <v>23.028120380199649</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="15">
         <v>26.74087643508685</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="15">
         <v>84.958611111110955</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="15">
         <v>23.858333333333299</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="17">
         <v>644.5</v>
       </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
+      <c r="S7" s="17">
+        <v>0</v>
+      </c>
+      <c r="T7" s="13">
         <v>32568.794999999998</v>
       </c>
       <c r="U7" s="5">
@@ -3221,53 +3262,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68601C12-8E4B-434C-8F07-8182597505BA}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="11" customWidth="1"/>
+    <col min="6" max="7" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3275,34 +3316,34 @@
       <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="22">
         <v>654</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="22">
         <v>286</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="22">
         <v>38067.94</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="22">
         <v>17667.37</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="22">
         <v>11141.13</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="22">
         <v>55735.31</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="20">
         <v>85.22</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="22">
         <v>5438.41</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="22">
         <v>631</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="22">
         <v>23</v>
       </c>
     </row>
@@ -3310,34 +3351,34 @@
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <v>491</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>123</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>9258.1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <v>13787.619999999901</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="11">
         <v>11748.73</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="11">
         <v>23045.72</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="10">
         <v>46.94</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="11">
         <v>1699.06</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="11">
         <v>476</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="11">
         <v>15</v>
       </c>
     </row>
@@ -3345,34 +3386,34 @@
       <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="22">
         <v>654</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="22">
         <v>428</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="22">
         <v>53118.34</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="22">
         <v>17168.79</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="22">
         <v>8861.69</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="22">
         <v>70287.13</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="20">
         <v>107.47</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="22">
         <v>6922.3</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="22">
         <v>631</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="22">
         <v>23</v>
       </c>
     </row>
@@ -3380,34 +3421,34 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>327</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>101</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <v>4804.47</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="11">
         <v>8001.87</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="11">
         <v>6373.58</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="11">
         <v>12806.34</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="10">
         <v>39.159999999999997</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="11">
         <v>1356.92</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="11">
         <v>316</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="11">
         <v>11</v>
       </c>
     </row>
@@ -3415,34 +3456,34 @@
       <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="22">
         <v>654</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="22">
         <v>564</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="22">
         <v>62323.24</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="22">
         <v>16601.219999999899</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="22">
         <v>7817.7599999999902</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="22">
         <v>78924.460000000006</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="20">
         <v>120.68</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="22">
         <v>7319.44</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="22">
         <v>631</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="22">
         <v>23</v>
       </c>
     </row>
@@ -3450,66 +3491,66 @@
       <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <v>164</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <v>74</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <v>1887.98</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="11">
         <v>3856.2999999999902</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="11">
         <v>2385.7599999999902</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="11">
         <v>5744.28</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="10">
         <v>35.03</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="11">
         <v>1225.45</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="11">
         <v>161</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="21" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="6" t="s">
@@ -3523,34 +3564,34 @@
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="22">
         <v>85.37</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="22">
         <v>81.069999999999993</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="22">
         <v>58.509524564183799</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="22">
         <v>26.8639461172741</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="22">
         <v>49.9317391304347</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="22">
         <v>31.139999999999901</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="20">
         <v>491</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="22">
         <v>163</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="22">
         <v>23710.699999999899</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="22">
         <v>32024.61</v>
       </c>
       <c r="L10" s="7">
@@ -3566,34 +3607,34 @@
       <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="11">
         <v>46.54</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="11">
         <v>59.47</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="11">
         <v>18.253088235294101</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="11">
         <v>28.2883403361344</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="11">
         <v>37.975333333333303</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="11">
         <v>21.491333333333301</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="10">
         <v>491</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
         <v>23045.72</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="11">
         <v>0</v>
       </c>
     </row>
@@ -3601,34 +3642,34 @@
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="22">
         <v>107.25</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="22">
         <v>113.49</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="22">
         <v>81.8672900158478</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="22">
         <v>25.385927099841499</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="22">
         <v>63.481739130434697</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="22">
         <v>50.011739130434698</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="20">
         <v>327</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="22">
         <v>327</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="22">
         <v>15011.2</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="22">
         <v>55275.93</v>
       </c>
       <c r="L12" s="7">
@@ -3644,34 +3685,34 @@
       <c r="A13" t="s">
         <v>47</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="11">
         <v>38.450000000000003</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <v>59.63</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="11">
         <v>13.801107594936701</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="11">
         <v>24.6495886075949</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="11">
         <v>40.301818181818099</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="11">
         <v>19.3272727272727</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="10">
         <v>327</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
         <v>12806.34</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="11">
         <v>0</v>
       </c>
     </row>
@@ -3679,34 +3720,34 @@
       <c r="A14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="22">
         <v>120.82</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="22">
         <v>116.85</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="22">
         <v>96.895150554675098</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="22">
         <v>23.923882725832001</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="22">
         <v>51.408695652173897</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="22">
         <v>65.445652173913004</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="20">
         <v>164</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="22">
         <v>490</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="22">
         <v>8057.97</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="22">
         <v>70866.490000000005</v>
       </c>
       <c r="L14" s="7">
@@ -3722,34 +3763,34 @@
       <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="11">
         <v>34.82</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <v>46.29</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="11">
         <v>11.2450931677018</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="11">
         <v>23.571180124223599</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="11">
         <v>25.84</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="11">
         <v>20.446666666666601</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="10">
         <v>164</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
         <v>5744.28</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="11">
         <v>0</v>
       </c>
     </row>
